--- a/casos de uso/caso 1/work.xlsx
+++ b/casos de uso/caso 1/work.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">Planilha2!$A$1:$C$13</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">Planilha2!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Created date (worklog)</t>
   </si>
@@ -99,9 +99,6 @@
     <t>DM-0010</t>
   </si>
   <si>
-    <t>2h15m</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -112,6 +109,12 @@
   </si>
   <si>
     <t>OBS</t>
+  </si>
+  <si>
+    <t>1h15m</t>
+  </si>
+  <si>
+    <t>DM-0012</t>
   </si>
 </sst>
 </file>
@@ -147,12 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="work_nov1" displayName="work_nov1" ref="A1:D13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="work_nov1" displayName="work_nov1" ref="A1:D14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D14">
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
@@ -497,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -574,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -596,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -648,13 +652,13 @@
         <v>45954</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -662,11 +666,23 @@
         <v>45961</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
